--- a/biorefineries/TAL/analyses/results/TAL_2024/full/baseline_B.xlsx
+++ b/biorefineries/TAL/analyses/results/TAL_2024/full/baseline_B.xlsx
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.357106525366524</v>
+        <v>3.357106525366519</v>
       </c>
       <c r="C4" t="n">
         <v>14.33676947191302</v>
@@ -2209,7 +2209,7 @@
         <v>0.9336279495316178</v>
       </c>
       <c r="E4" t="n">
-        <v>3.59576480872356</v>
+        <v>3.595764808723545</v>
       </c>
       <c r="F4" t="n">
         <v>13.38520868496964</v>
@@ -2218,10 +2218,10 @@
         <v>0.732427710427265</v>
       </c>
       <c r="H4" t="n">
-        <v>204.3982545328504</v>
+        <v>204.3982545328505</v>
       </c>
       <c r="I4" t="n">
-        <v>111.6838158284805</v>
+        <v>111.6838158284806</v>
       </c>
       <c r="J4" t="n">
         <v>18.00540480006858</v>
@@ -2233,13 +2233,13 @@
         <v>23.5672828114037</v>
       </c>
       <c r="M4" t="n">
-        <v>48.13006234683479</v>
+        <v>48.1300623468346</v>
       </c>
       <c r="N4" t="n">
         <v>15.24972647968161</v>
       </c>
       <c r="O4" t="n">
-        <v>5.706679075956345e-07</v>
+        <v>-1.106876879930496e-06</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>13.87999554413157</v>
+        <v>13.87999554413156</v>
       </c>
       <c r="BD4" t="n">
         <v>36.15007046120456</v>
@@ -2644,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.07370151851383543</v>
+        <v>0.07370151851383538</v>
       </c>
       <c r="EU4" t="n">
         <v>0.191953598176722</v>
@@ -2872,7 +2872,7 @@
         <v>-4.73188662141875</v>
       </c>
       <c r="HR4" t="n">
-        <v>12.25001479901717</v>
+        <v>0.8513015349816317</v>
       </c>
       <c r="HS4" t="n">
         <v>3.196292588302836</v>
@@ -2947,7 +2947,7 @@
         <v>-0.6730122634636874</v>
       </c>
       <c r="IQ4" t="n">
-        <v>1.742309325424689</v>
+        <v>0.1210799029619009</v>
       </c>
       <c r="IR4" t="n">
         <v>0.4546060127072376</v>
@@ -3029,7 +3029,7 @@
         <v>0.9336279362408759</v>
       </c>
       <c r="E5" t="n">
-        <v>3.595737885005547</v>
+        <v>3.595737885005549</v>
       </c>
       <c r="F5" t="n">
         <v>13.38527841454753</v>
@@ -3041,7 +3041,7 @@
         <v>204.3980313494817</v>
       </c>
       <c r="I5" t="n">
-        <v>111.6837343410366</v>
+        <v>111.6837343410365</v>
       </c>
       <c r="J5" t="n">
         <v>18.00540474340378</v>
@@ -3053,13 +3053,13 @@
         <v>23.56719983311342</v>
       </c>
       <c r="M5" t="n">
-        <v>48.12995269653553</v>
+        <v>48.12995269653555</v>
       </c>
       <c r="N5" t="n">
         <v>15.24971618725547</v>
       </c>
       <c r="O5" t="n">
-        <v>-1.664739102125168e-07</v>
+        <v>-3.469176590442657e-08</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.07370121966724894</v>
+        <v>0.07370121966724896</v>
       </c>
       <c r="EU5" t="n">
         <v>0.1919527533633551</v>
@@ -3692,7 +3692,7 @@
         <v>-4.731897255657257</v>
       </c>
       <c r="HR5" t="n">
-        <v>12.24999116479587</v>
+        <v>0.8512984997813153</v>
       </c>
       <c r="HS5" t="n">
         <v>3.196295621200066</v>
@@ -3767,7 +3767,7 @@
         <v>-0.6730188305193753</v>
       </c>
       <c r="IQ5" t="n">
-        <v>1.742319049245385</v>
+        <v>0.1210803806149292</v>
       </c>
       <c r="IR5" t="n">
         <v>0.45460985831897</v>
